--- a/test-estrazione-dati/raccolta-test2.xlsx
+++ b/test-estrazione-dati/raccolta-test2.xlsx
@@ -993,9 +993,9 @@
   <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/test-estrazione-dati/raccolta-test2.xlsx
+++ b/test-estrazione-dati/raccolta-test2.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28507"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_81AF44DAE1E8A3A8806054EC8B44C6716BF5A3BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF67670C-6B74-4E25-B225-29286531B734}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -22,727 +36,711 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="230">
   <si>
-    <t xml:space="preserve">Macchina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelfile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prompt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%Accuratezza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4-ram16gb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ollama</t>
+    <t>Macchina</t>
+  </si>
+  <si>
+    <t>Ambiente</t>
+  </si>
+  <si>
+    <t>Modello</t>
+  </si>
+  <si>
+    <t>Modelfile</t>
+  </si>
+  <si>
+    <t>Prompt</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>%Accuratezza</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>L4-ram16gb</t>
+  </si>
+  <si>
+    <t>Ollama</t>
   </si>
   <si>
     <t xml:space="preserve">Llama3.1:8b-instruct-fp16  </t>
   </si>
   <si>
-    <t xml:space="preserve">test8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prompt6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:38,83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prompt7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auto-test.sh timeout a 5 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prompt8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prompt9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:03,77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prompt9 da 473/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prompt10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prompt10 da 589/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:00,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">473/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:10,55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">589/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama3.1:8b-instruct-q8_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:03,76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33,01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama3.1:8b-instruct-q4_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bad-format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41,15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama3.2:3b-instruct-fp16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36,41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama3.2:3b-instruct-q8_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama3.2:3b-instruct-q4_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,07</t>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>prompt6</t>
+  </si>
+  <si>
+    <t>2:38,83</t>
+  </si>
+  <si>
+    <t>prompt7</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>timeout a 5 min</t>
+  </si>
+  <si>
+    <t>prompt8</t>
+  </si>
+  <si>
+    <t>prompt9</t>
+  </si>
+  <si>
+    <t>3:03,77</t>
+  </si>
+  <si>
+    <t>prompt9 da 473/2024</t>
+  </si>
+  <si>
+    <t>prompt10</t>
+  </si>
+  <si>
+    <t>prompt10 da 589/2021</t>
+  </si>
+  <si>
+    <t>62/2023</t>
+  </si>
+  <si>
+    <t>5:00,0</t>
+  </si>
+  <si>
+    <t>473/2024</t>
+  </si>
+  <si>
+    <t>4:10,55</t>
+  </si>
+  <si>
+    <t>589/2021</t>
+  </si>
+  <si>
+    <t>Llama3.1:8b-instruct-q8_0</t>
+  </si>
+  <si>
+    <t>6,23</t>
+  </si>
+  <si>
+    <t>9,61</t>
+  </si>
+  <si>
+    <t>23,86</t>
+  </si>
+  <si>
+    <t>8,00</t>
+  </si>
+  <si>
+    <t>10,19</t>
+  </si>
+  <si>
+    <t>1:03,76</t>
+  </si>
+  <si>
+    <t>33,01</t>
+  </si>
+  <si>
+    <t>28,41</t>
+  </si>
+  <si>
+    <t>Llama3.1:8b-instruct-q4_0</t>
+  </si>
+  <si>
+    <t>5,08</t>
+  </si>
+  <si>
+    <t>6,99</t>
+  </si>
+  <si>
+    <t>17,18</t>
+  </si>
+  <si>
+    <t>9,66</t>
+  </si>
+  <si>
+    <t>bad-format</t>
+  </si>
+  <si>
+    <t>7,93</t>
+  </si>
+  <si>
+    <t>41,15</t>
+  </si>
+  <si>
+    <t>39,25</t>
+  </si>
+  <si>
+    <t>26,13</t>
+  </si>
+  <si>
+    <t>Llama3.2:3b-instruct-fp16 </t>
+  </si>
+  <si>
+    <t>11,35</t>
+  </si>
+  <si>
+    <t>20,91</t>
+  </si>
+  <si>
+    <t>12,49</t>
+  </si>
+  <si>
+    <t>8,84</t>
+  </si>
+  <si>
+    <t>36,41</t>
+  </si>
+  <si>
+    <t>29,31</t>
+  </si>
+  <si>
+    <t>27,68</t>
+  </si>
+  <si>
+    <t>Llama3.2:3b-instruct-q8_0</t>
+  </si>
+  <si>
+    <t>8,03</t>
+  </si>
+  <si>
+    <t>15,13</t>
+  </si>
+  <si>
+    <t>9,32</t>
+  </si>
+  <si>
+    <t>6,49</t>
+  </si>
+  <si>
+    <t>30,27</t>
+  </si>
+  <si>
+    <t>19,83</t>
+  </si>
+  <si>
+    <t>27,11</t>
+  </si>
+  <si>
+    <t>Llama3.2:3b-instruct-q4_0</t>
+  </si>
+  <si>
+    <t>12,57</t>
+  </si>
+  <si>
+    <t>5,84</t>
+  </si>
+  <si>
+    <t>11,54</t>
+  </si>
+  <si>
+    <t>16,22</t>
+  </si>
+  <si>
+    <t>4,80</t>
+  </si>
+  <si>
+    <t>20,86</t>
+  </si>
+  <si>
+    <t>19,07</t>
   </si>
   <si>
     <t xml:space="preserve">Llama3.1:8b-redeIT-JSON-fp16  </t>
   </si>
   <si>
-    <t xml:space="preserve">2:34,87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama3.1:8b-redeIT-JSON-F16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:39,53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:58,19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:54,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:21,20</t>
+    <t>2:34,87</t>
+  </si>
+  <si>
+    <t>Llama3.1:8b-redeIT-JSON-F16</t>
+  </si>
+  <si>
+    <t>2:39,53</t>
+  </si>
+  <si>
+    <t>4:58,19</t>
+  </si>
+  <si>
+    <t>3:54,50</t>
+  </si>
+  <si>
+    <t>3:21,20</t>
   </si>
   <si>
     <t xml:space="preserve">Llama3.1:8b-redeIT-JSON-Q8_0 </t>
   </si>
   <si>
-    <t xml:space="preserve">6,21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51,41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32,77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama3.1:8b-redeIT-JSON-Q4_K_M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48,42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32,48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama3.2:3b-redeIT-JSON-F16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama3.2:3b-redeIT-JSON-Q8_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama3.2:3b-redeIT-JSON-Q4_K_M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5:7b-instruct-fp16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:27,36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5:7b-instruct-q8_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47,12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5:7b-instruct-q4_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5:3b-instruct-fp16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43,49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5:3b-instruct-q8_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5:3b-instruct-q4_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5:7b-redeIT-JSON-F16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:29,68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5:7b-redeIT-JSON-Q8_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5:7b-redeIT-JSON-Q4_K_M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5:3b-redeIT-JSON-F16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5:3b-redeIT-JSON-Q8_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33,63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen2.5:3b-redeIT-JSON-Q4_K_M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16,33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChatGPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPT-4o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,79</t>
+    <t>6,21</t>
+  </si>
+  <si>
+    <t>9,34</t>
+  </si>
+  <si>
+    <t>13,85</t>
+  </si>
+  <si>
+    <t>8,06</t>
+  </si>
+  <si>
+    <t>9,64</t>
+  </si>
+  <si>
+    <t>51,41</t>
+  </si>
+  <si>
+    <t>32,77</t>
+  </si>
+  <si>
+    <t>23,60</t>
+  </si>
+  <si>
+    <t>Llama3.1:8b-redeIT-JSON-Q4_K_M</t>
+  </si>
+  <si>
+    <t>5,22</t>
+  </si>
+  <si>
+    <t>7,25</t>
+  </si>
+  <si>
+    <t>17,86</t>
+  </si>
+  <si>
+    <t>6,93</t>
+  </si>
+  <si>
+    <t>7,88</t>
+  </si>
+  <si>
+    <t>48,42</t>
+  </si>
+  <si>
+    <t>32,48</t>
+  </si>
+  <si>
+    <t>26,07</t>
+  </si>
+  <si>
+    <t>Llama3.2:3b-redeIT-JSON-F16</t>
+  </si>
+  <si>
+    <t>10,42</t>
+  </si>
+  <si>
+    <t>20,82</t>
+  </si>
+  <si>
+    <t>12,36</t>
+  </si>
+  <si>
+    <t>7,80</t>
+  </si>
+  <si>
+    <t>29,59</t>
+  </si>
+  <si>
+    <t>21,54</t>
+  </si>
+  <si>
+    <t>19,59</t>
+  </si>
+  <si>
+    <t>Llama3.2:3b-redeIT-JSON-Q8_0</t>
+  </si>
+  <si>
+    <t>5,58</t>
+  </si>
+  <si>
+    <t>7,36</t>
+  </si>
+  <si>
+    <t>7,11</t>
+  </si>
+  <si>
+    <t>9,14</t>
+  </si>
+  <si>
+    <t>5,71</t>
+  </si>
+  <si>
+    <t>26,82</t>
+  </si>
+  <si>
+    <t>20,24</t>
+  </si>
+  <si>
+    <t>17,24</t>
+  </si>
+  <si>
+    <t>Llama3.2:3b-redeIT-JSON-Q4_K_M</t>
+  </si>
+  <si>
+    <t>4,74</t>
+  </si>
+  <si>
+    <t>6,06</t>
+  </si>
+  <si>
+    <t>12,26</t>
+  </si>
+  <si>
+    <t>7,75</t>
+  </si>
+  <si>
+    <t>4,95</t>
+  </si>
+  <si>
+    <t>27,50</t>
+  </si>
+  <si>
+    <t>20,02</t>
+  </si>
+  <si>
+    <t>18,80</t>
+  </si>
+  <si>
+    <t>Qwen2.5:7b-instruct-fp16</t>
+  </si>
+  <si>
+    <t>8,42</t>
+  </si>
+  <si>
+    <t>14,30</t>
+  </si>
+  <si>
+    <t>35,81</t>
+  </si>
+  <si>
+    <t>10,84</t>
+  </si>
+  <si>
+    <t>14,80</t>
+  </si>
+  <si>
+    <t>1:27,36</t>
+  </si>
+  <si>
+    <t>29,19</t>
+  </si>
+  <si>
+    <t>28,74</t>
+  </si>
+  <si>
+    <t>Qwen2.5:7b-instruct-q8_0</t>
+  </si>
+  <si>
+    <t>5,90</t>
+  </si>
+  <si>
+    <t>9,40</t>
+  </si>
+  <si>
+    <t>23,11</t>
+  </si>
+  <si>
+    <t>10,00</t>
+  </si>
+  <si>
+    <t>47,12</t>
+  </si>
+  <si>
+    <t>26,70</t>
+  </si>
+  <si>
+    <t>23,82</t>
+  </si>
+  <si>
+    <t>Qwen2.5:7b-instruct-q4_0</t>
+  </si>
+  <si>
+    <t>4,75</t>
+  </si>
+  <si>
+    <t>6,74</t>
+  </si>
+  <si>
+    <t>16,57</t>
+  </si>
+  <si>
+    <t>9,28</t>
+  </si>
+  <si>
+    <t>7,53</t>
+  </si>
+  <si>
+    <t>37,58</t>
+  </si>
+  <si>
+    <t>25,36</t>
+  </si>
+  <si>
+    <t>21,45</t>
+  </si>
+  <si>
+    <t>Qwen2.5:3b-instruct-fp16</t>
+  </si>
+  <si>
+    <t>5,02</t>
+  </si>
+  <si>
+    <t>44,73</t>
+  </si>
+  <si>
+    <t>21,38</t>
+  </si>
+  <si>
+    <t>10,93</t>
+  </si>
+  <si>
+    <t>43,49</t>
+  </si>
+  <si>
+    <t>28,72</t>
+  </si>
+  <si>
+    <t>25,32</t>
+  </si>
+  <si>
+    <t>Qwen2.5:3b-instruct-q8_0</t>
+  </si>
+  <si>
+    <t>3,92</t>
+  </si>
+  <si>
+    <t>15,27</t>
+  </si>
+  <si>
+    <t>7,73</t>
+  </si>
+  <si>
+    <t>6,15</t>
+  </si>
+  <si>
+    <t>31,76</t>
+  </si>
+  <si>
+    <t>25,99</t>
+  </si>
+  <si>
+    <t>21,13</t>
+  </si>
+  <si>
+    <t>Qwen2.5:3b-instruct-q4_0</t>
+  </si>
+  <si>
+    <t>3,25</t>
+  </si>
+  <si>
+    <t>4,62</t>
+  </si>
+  <si>
+    <t>11,28</t>
+  </si>
+  <si>
+    <t>7,96</t>
+  </si>
+  <si>
+    <t>5,14</t>
+  </si>
+  <si>
+    <t>16,31</t>
+  </si>
+  <si>
+    <t>Qwen2.5:7b-redeIT-JSON-F16</t>
+  </si>
+  <si>
+    <t>8,34</t>
+  </si>
+  <si>
+    <t>13,86</t>
+  </si>
+  <si>
+    <t>36,50</t>
+  </si>
+  <si>
+    <t>14,89</t>
+  </si>
+  <si>
+    <t>1:29,68</t>
+  </si>
+  <si>
+    <t>29,69</t>
+  </si>
+  <si>
+    <t>29,10</t>
+  </si>
+  <si>
+    <t>Qwen2.5:7b-redeIT-JSON-Q8_0</t>
+  </si>
+  <si>
+    <t>5,97</t>
+  </si>
+  <si>
+    <t>8,94</t>
+  </si>
+  <si>
+    <t>23,76</t>
+  </si>
+  <si>
+    <t>7,98</t>
+  </si>
+  <si>
+    <t>9,87</t>
+  </si>
+  <si>
+    <t>44,94</t>
+  </si>
+  <si>
+    <t>26,24</t>
+  </si>
+  <si>
+    <t>24,06</t>
+  </si>
+  <si>
+    <t>Qwen2.5:7b-redeIT-JSON-Q4_K_M</t>
+  </si>
+  <si>
+    <t>4,99</t>
+  </si>
+  <si>
+    <t>7,17</t>
+  </si>
+  <si>
+    <t>6,62</t>
+  </si>
+  <si>
+    <t>7,74</t>
+  </si>
+  <si>
+    <t>44,83</t>
+  </si>
+  <si>
+    <t>25,74</t>
+  </si>
+  <si>
+    <t>21,61</t>
+  </si>
+  <si>
+    <t>Qwen2.5:3b-redeIT-JSON-F16</t>
+  </si>
+  <si>
+    <t>4,87</t>
+  </si>
+  <si>
+    <t>7,65</t>
+  </si>
+  <si>
+    <t>18,05</t>
+  </si>
+  <si>
+    <t>6,02</t>
+  </si>
+  <si>
+    <t>8,75</t>
+  </si>
+  <si>
+    <t>35,32</t>
+  </si>
+  <si>
+    <t>29,15</t>
+  </si>
+  <si>
+    <t>19,65</t>
+  </si>
+  <si>
+    <t>Qwen2.5:3b-redeIT-JSON-Q8_0</t>
+  </si>
+  <si>
+    <t>3,83</t>
+  </si>
+  <si>
+    <t>5,65</t>
+  </si>
+  <si>
+    <t>13,01</t>
+  </si>
+  <si>
+    <t>4,84</t>
+  </si>
+  <si>
+    <t>6,43</t>
+  </si>
+  <si>
+    <t>33,63</t>
+  </si>
+  <si>
+    <t>26,06</t>
+  </si>
+  <si>
+    <t>17,12</t>
+  </si>
+  <si>
+    <t>Qwen2.5:3b-redeIT-JSON-Q4_K_M</t>
+  </si>
+  <si>
+    <t>3,31</t>
+  </si>
+  <si>
+    <t>4,77</t>
+  </si>
+  <si>
+    <t>10,46</t>
+  </si>
+  <si>
+    <t>4,72</t>
+  </si>
+  <si>
+    <t>5,21</t>
+  </si>
+  <si>
+    <t>30,88</t>
+  </si>
+  <si>
+    <t>23,51</t>
+  </si>
+  <si>
+    <t>16,33</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>GPT-4o</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>6,0</t>
+  </si>
+  <si>
+    <t>12,86</t>
+  </si>
+  <si>
+    <t>14,18</t>
+  </si>
+  <si>
+    <t>13,79</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-409]General"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mm:ss.00"/>
-    <numFmt numFmtId="167" formatCode="[$-410]General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-409]General"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mm:ss.00"/>
+    <numFmt numFmtId="166" formatCode="[$-410]General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -751,14 +749,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -810,7 +808,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -818,153 +816,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1023,38 +966,345 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C213" activeCellId="0" sqref="C213"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1"/>
+    <col min="3" max="3" width="25.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1"/>
+    <col min="6" max="6" width="11.5703125" style="3"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1099,11 +1349,11 @@
       <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="true" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1122,14 +1372,14 @@
       <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="7">
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" s="7" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1148,11 +1398,11 @@
       <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="true" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" ht="23.65">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1171,14 +1421,14 @@
       <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="7">
         <v>20</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="true" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" s="7" customFormat="1" ht="23.65">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1197,14 +1447,14 @@
       <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="7">
         <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" s="7" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -1223,11 +1473,11 @@
       <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1246,11 +1496,11 @@
       <c r="F8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -1269,11 +1519,11 @@
       <c r="F9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="10" customFormat="1">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -1292,11 +1542,11 @@
       <c r="F10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" s="10" customFormat="1">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -1315,11 +1565,11 @@
       <c r="F11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" s="10" customFormat="1">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
@@ -1338,11 +1588,11 @@
       <c r="F12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="10">
         <v>40</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" s="10" customFormat="1">
       <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
@@ -1361,11 +1611,11 @@
       <c r="F13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="14" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" s="10" customFormat="1">
       <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
@@ -1384,11 +1634,11 @@
       <c r="F14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="10" t="n">
+      <c r="G14" s="10">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" s="10" customFormat="1">
       <c r="A15" s="10" t="s">
         <v>8</v>
       </c>
@@ -1407,11 +1657,11 @@
       <c r="F15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="10" customFormat="1">
       <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
@@ -1430,11 +1680,11 @@
       <c r="F16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="10" customFormat="1">
       <c r="A17" s="10" t="s">
         <v>8</v>
       </c>
@@ -1453,11 +1703,11 @@
       <c r="F17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -1476,11 +1726,11 @@
       <c r="F18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
@@ -1499,11 +1749,11 @@
       <c r="F19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="G19" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" s="7" customFormat="1">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1522,11 +1772,11 @@
       <c r="F20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="7" t="n">
+      <c r="G20" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" s="7" customFormat="1">
       <c r="A21" s="7" t="s">
         <v>8</v>
       </c>
@@ -1545,14 +1795,14 @@
       <c r="F21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="7" t="n">
+      <c r="G21" s="7">
         <v>0</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" s="7" customFormat="1">
       <c r="A22" s="7" t="s">
         <v>8</v>
       </c>
@@ -1571,14 +1821,14 @@
       <c r="F22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="G22" s="7">
         <v>0</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" s="7" customFormat="1">
       <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
@@ -1597,11 +1847,11 @@
       <c r="F23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1">
       <c r="A24" s="7" t="s">
         <v>8</v>
       </c>
@@ -1620,11 +1870,11 @@
       <c r="F24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
@@ -1643,11 +1893,11 @@
       <c r="F25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="10" customFormat="1">
       <c r="A26" s="10" t="s">
         <v>8</v>
       </c>
@@ -1666,14 +1916,14 @@
       <c r="F26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="10" t="n">
+      <c r="G26" s="10">
         <v>0</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" s="10" customFormat="1">
       <c r="A27" s="10" t="s">
         <v>8</v>
       </c>
@@ -1692,11 +1942,11 @@
       <c r="F27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="10" customFormat="1">
       <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
@@ -1715,14 +1965,14 @@
       <c r="F28" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="10" t="n">
+      <c r="G28" s="10">
         <v>0</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" s="10" customFormat="1">
       <c r="A29" s="10" t="s">
         <v>8</v>
       </c>
@@ -1741,11 +1991,11 @@
       <c r="F29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="10" customFormat="1">
       <c r="A30" s="10" t="s">
         <v>8</v>
       </c>
@@ -1764,14 +2014,14 @@
       <c r="F30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="10" t="n">
+      <c r="G30" s="10">
         <v>0</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" s="10" customFormat="1">
       <c r="A31" s="10" t="s">
         <v>8</v>
       </c>
@@ -1790,11 +2040,11 @@
       <c r="F31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="10" customFormat="1">
       <c r="A32" s="10" t="s">
         <v>8</v>
       </c>
@@ -1813,14 +2063,14 @@
       <c r="F32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="10" t="n">
+      <c r="G32" s="10">
         <v>0</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" s="10" customFormat="1">
       <c r="A33" s="10" t="s">
         <v>8</v>
       </c>
@@ -1839,14 +2089,14 @@
       <c r="F33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="10" t="n">
+      <c r="G33" s="10">
         <v>0</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" s="7" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>8</v>
       </c>
@@ -1865,14 +2115,14 @@
       <c r="F34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="7" t="n">
+      <c r="G34" s="7">
         <v>0</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" s="7" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>8</v>
       </c>
@@ -1891,11 +2141,11 @@
       <c r="F35" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="7" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>8</v>
       </c>
@@ -1914,14 +2164,14 @@
       <c r="F36" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="7" t="n">
+      <c r="G36" s="7">
         <v>0</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" s="7" customFormat="1">
       <c r="A37" s="7" t="s">
         <v>8</v>
       </c>
@@ -1940,11 +2190,11 @@
       <c r="F37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="7" customFormat="1">
       <c r="A38" s="7" t="s">
         <v>8</v>
       </c>
@@ -1963,14 +2213,14 @@
       <c r="F38" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="7" t="n">
+      <c r="G38" s="7">
         <v>0</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" s="7" customFormat="1">
       <c r="A39" s="7" t="s">
         <v>8</v>
       </c>
@@ -1989,11 +2239,11 @@
       <c r="F39" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="7" customFormat="1">
       <c r="A40" s="7" t="s">
         <v>8</v>
       </c>
@@ -2012,11 +2262,11 @@
       <c r="F40" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="7" customFormat="1">
       <c r="A41" s="7" t="s">
         <v>8</v>
       </c>
@@ -2035,14 +2285,14 @@
       <c r="F41" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="7" t="n">
+      <c r="G41" s="7">
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" s="10" customFormat="1">
       <c r="A42" s="10" t="s">
         <v>8</v>
       </c>
@@ -2061,11 +2311,11 @@
       <c r="F42" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="10" customFormat="1">
       <c r="A43" s="10" t="s">
         <v>8</v>
       </c>
@@ -2084,11 +2334,11 @@
       <c r="F43" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="10" customFormat="1">
       <c r="A44" s="10" t="s">
         <v>8</v>
       </c>
@@ -2107,11 +2357,11 @@
       <c r="F44" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="10" customFormat="1">
       <c r="A45" s="10" t="s">
         <v>8</v>
       </c>
@@ -2130,11 +2380,11 @@
       <c r="F45" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G45" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="10" customFormat="1">
       <c r="A46" s="10" t="s">
         <v>8</v>
       </c>
@@ -2153,11 +2403,11 @@
       <c r="F46" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G46" s="10" t="n">
+      <c r="G46" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="47" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8" s="10" customFormat="1">
       <c r="A47" s="10" t="s">
         <v>8</v>
       </c>
@@ -2176,14 +2426,14 @@
       <c r="F47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="10" t="n">
+      <c r="G47" s="10">
         <v>0</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:8" s="10" customFormat="1">
       <c r="A48" s="10" t="s">
         <v>8</v>
       </c>
@@ -2202,11 +2452,11 @@
       <c r="F48" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="10" customFormat="1">
       <c r="A49" s="10" t="s">
         <v>8</v>
       </c>
@@ -2225,11 +2475,11 @@
       <c r="F49" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="7" customFormat="1">
       <c r="A50" s="7" t="s">
         <v>8</v>
       </c>
@@ -2248,11 +2498,11 @@
       <c r="F50" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="7" t="n">
+      <c r="G50" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="51" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:8" s="7" customFormat="1">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -2271,11 +2521,11 @@
       <c r="F51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="7" customFormat="1">
       <c r="A52" s="7" t="s">
         <v>8</v>
       </c>
@@ -2294,11 +2544,11 @@
       <c r="F52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="7" customFormat="1">
       <c r="A53" s="7" t="s">
         <v>8</v>
       </c>
@@ -2317,11 +2567,11 @@
       <c r="F53" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G53" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="7" customFormat="1">
       <c r="A54" s="7" t="s">
         <v>8</v>
       </c>
@@ -2340,14 +2590,14 @@
       <c r="F54" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="7" t="n">
+      <c r="G54" s="7">
         <v>0</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:8" s="7" customFormat="1">
       <c r="A55" s="7" t="s">
         <v>8</v>
       </c>
@@ -2366,11 +2616,11 @@
       <c r="F55" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="7" t="n">
+      <c r="G55" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="56" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:8" s="7" customFormat="1">
       <c r="A56" s="7" t="s">
         <v>8</v>
       </c>
@@ -2389,14 +2639,14 @@
       <c r="F56" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G56" s="7" t="n">
+      <c r="G56" s="7">
         <v>0</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:8" s="7" customFormat="1">
       <c r="A57" s="7" t="s">
         <v>8</v>
       </c>
@@ -2415,11 +2665,11 @@
       <c r="F57" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G57" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="10" customFormat="1">
       <c r="A58" s="10" t="s">
         <v>8</v>
       </c>
@@ -2438,11 +2688,11 @@
       <c r="F58" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="10" t="n">
+      <c r="G58" s="10">
         <v>60</v>
       </c>
     </row>
-    <row r="59" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:8" s="10" customFormat="1">
       <c r="A59" s="10" t="s">
         <v>8</v>
       </c>
@@ -2461,14 +2711,14 @@
       <c r="F59" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G59" s="10" t="n">
+      <c r="G59" s="10">
         <v>0</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:8" s="10" customFormat="1">
       <c r="A60" s="10" t="s">
         <v>8</v>
       </c>
@@ -2487,11 +2737,11 @@
       <c r="F60" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G60" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="10" customFormat="1">
       <c r="A61" s="10" t="s">
         <v>8</v>
       </c>
@@ -2510,11 +2760,11 @@
       <c r="F61" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G61" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="10" customFormat="1">
       <c r="A62" s="10" t="s">
         <v>8</v>
       </c>
@@ -2533,14 +2783,14 @@
       <c r="F62" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="10" t="n">
+      <c r="G62" s="10">
         <v>0</v>
       </c>
       <c r="H62" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:8" s="10" customFormat="1">
       <c r="A63" s="10" t="s">
         <v>8</v>
       </c>
@@ -2559,11 +2809,11 @@
       <c r="F63" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="10" t="n">
+      <c r="G63" s="10">
         <v>40</v>
       </c>
     </row>
-    <row r="64" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:8" s="10" customFormat="1">
       <c r="A64" s="10" t="s">
         <v>8</v>
       </c>
@@ -2582,14 +2832,14 @@
       <c r="F64" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G64" s="10" t="n">
+      <c r="G64" s="10">
         <v>0</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:8" s="10" customFormat="1">
       <c r="A65" s="10" t="s">
         <v>8</v>
       </c>
@@ -2608,11 +2858,11 @@
       <c r="F65" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G65" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" s="7" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="7" customFormat="1" ht="22.35">
       <c r="A66" s="7" t="s">
         <v>8</v>
       </c>
@@ -2631,11 +2881,11 @@
       <c r="F66" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G66" s="7" t="n">
+      <c r="G66" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="67" s="7" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:8" s="7" customFormat="1" ht="22.35">
       <c r="A67" s="7" t="s">
         <v>8</v>
       </c>
@@ -2654,14 +2904,14 @@
       <c r="F67" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G67" s="7" t="n">
+      <c r="G67" s="7">
         <v>0</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="68" s="7" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:8" s="7" customFormat="1" ht="22.35">
       <c r="A68" s="7" t="s">
         <v>8</v>
       </c>
@@ -2680,14 +2930,14 @@
       <c r="F68" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G68" s="7" t="n">
+      <c r="G68" s="7">
         <v>0</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" s="7" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:8" s="7" customFormat="1" ht="22.35">
       <c r="A69" s="7" t="s">
         <v>8</v>
       </c>
@@ -2706,11 +2956,11 @@
       <c r="F69" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G69" s="7" t="n">
+      <c r="G69" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="70" s="7" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:8" s="7" customFormat="1" ht="22.35">
       <c r="A70" s="7" t="s">
         <v>8</v>
       </c>
@@ -2729,14 +2979,14 @@
       <c r="F70" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G70" s="7" t="n">
+      <c r="G70" s="7">
         <v>0</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="71" s="7" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:8" s="7" customFormat="1" ht="22.35">
       <c r="A71" s="7" t="s">
         <v>8</v>
       </c>
@@ -2755,11 +3005,11 @@
       <c r="F71" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G71" s="7" t="n">
+      <c r="G71" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="72" s="7" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:8" s="7" customFormat="1" ht="22.35">
       <c r="A72" s="7" t="s">
         <v>8</v>
       </c>
@@ -2778,14 +3028,14 @@
       <c r="F72" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G72" s="7" t="n">
+      <c r="G72" s="7">
         <v>0</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="73" s="7" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:8" s="7" customFormat="1" ht="22.35">
       <c r="A73" s="7" t="s">
         <v>8</v>
       </c>
@@ -2804,14 +3054,14 @@
       <c r="F73" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G73" s="7" t="n">
+      <c r="G73" s="7">
         <v>0</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="74" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:8" s="10" customFormat="1">
       <c r="A74" s="10" t="s">
         <v>8</v>
       </c>
@@ -2827,14 +3077,14 @@
       <c r="E74" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="13" t="n">
+      <c r="F74" s="13">
         <v>7.54</v>
       </c>
-      <c r="G74" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="10" customFormat="1">
       <c r="A75" s="10" t="s">
         <v>8</v>
       </c>
@@ -2853,11 +3103,11 @@
       <c r="F75" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G75" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="10" customFormat="1">
       <c r="A76" s="10" t="s">
         <v>8</v>
       </c>
@@ -2876,14 +3126,14 @@
       <c r="F76" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G76" s="10" t="n">
+      <c r="G76" s="10">
         <v>0</v>
       </c>
       <c r="H76" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:8" s="10" customFormat="1">
       <c r="A77" s="10" t="s">
         <v>8</v>
       </c>
@@ -2902,11 +3152,11 @@
       <c r="F77" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G77" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G77" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="10" customFormat="1">
       <c r="A78" s="10" t="s">
         <v>8</v>
       </c>
@@ -2925,11 +3175,11 @@
       <c r="F78" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G78" s="10" t="n">
+      <c r="G78" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="79" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:8" s="10" customFormat="1">
       <c r="A79" s="10" t="s">
         <v>8</v>
       </c>
@@ -2948,11 +3198,11 @@
       <c r="F79" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G79" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G79" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="10" customFormat="1">
       <c r="A80" s="10" t="s">
         <v>8</v>
       </c>
@@ -2971,11 +3221,11 @@
       <c r="F80" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G80" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G80" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="10" customFormat="1">
       <c r="A81" s="10" t="s">
         <v>8</v>
       </c>
@@ -2994,11 +3244,11 @@
       <c r="F81" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G81" s="10" t="n">
+      <c r="G81" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="82" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:8" s="7" customFormat="1">
       <c r="A82" s="7" t="s">
         <v>8</v>
       </c>
@@ -3017,11 +3267,11 @@
       <c r="F82" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G82" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="7" customFormat="1">
       <c r="A83" s="7" t="s">
         <v>8</v>
       </c>
@@ -3040,11 +3290,11 @@
       <c r="F83" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G83" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="7" customFormat="1">
       <c r="A84" s="7" t="s">
         <v>8</v>
       </c>
@@ -3063,14 +3313,14 @@
       <c r="F84" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G84" s="7" t="n">
+      <c r="G84" s="7">
         <v>0</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="85" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:8" s="7" customFormat="1">
       <c r="A85" s="7" t="s">
         <v>8</v>
       </c>
@@ -3089,11 +3339,11 @@
       <c r="F85" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G85" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="7" customFormat="1">
       <c r="A86" s="7" t="s">
         <v>8</v>
       </c>
@@ -3112,11 +3362,11 @@
       <c r="F86" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G86" s="7" t="n">
+      <c r="G86" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="87" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:8" s="7" customFormat="1">
       <c r="A87" s="7" t="s">
         <v>8</v>
       </c>
@@ -3135,11 +3385,11 @@
       <c r="F87" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G87" s="7" t="n">
+      <c r="G87" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="88" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:8" s="7" customFormat="1">
       <c r="A88" s="7" t="s">
         <v>8</v>
       </c>
@@ -3158,11 +3408,11 @@
       <c r="F88" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G88" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="7" customFormat="1">
       <c r="A89" s="7" t="s">
         <v>8</v>
       </c>
@@ -3181,11 +3431,11 @@
       <c r="F89" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G89" s="7" t="n">
+      <c r="G89" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="90" s="10" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:8" s="10" customFormat="1" ht="22.35">
       <c r="A90" s="10" t="s">
         <v>8</v>
       </c>
@@ -3204,11 +3454,11 @@
       <c r="F90" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G90" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" s="10" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G90" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="10" customFormat="1" ht="22.35">
       <c r="A91" s="10" t="s">
         <v>8</v>
       </c>
@@ -3227,11 +3477,11 @@
       <c r="F91" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" s="10" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G91" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="10" customFormat="1" ht="22.35">
       <c r="A92" s="10" t="s">
         <v>8</v>
       </c>
@@ -3250,14 +3500,14 @@
       <c r="F92" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G92" s="10" t="n">
+      <c r="G92" s="10">
         <v>0</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="93" s="10" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:8" s="10" customFormat="1" ht="22.35">
       <c r="A93" s="10" t="s">
         <v>8</v>
       </c>
@@ -3276,11 +3526,11 @@
       <c r="F93" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G93" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" s="10" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G93" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="10" customFormat="1" ht="22.35">
       <c r="A94" s="10" t="s">
         <v>8</v>
       </c>
@@ -3299,11 +3549,11 @@
       <c r="F94" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G94" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" s="10" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G94" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="10" customFormat="1" ht="22.35">
       <c r="A95" s="10" t="s">
         <v>8</v>
       </c>
@@ -3322,11 +3572,11 @@
       <c r="F95" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G95" s="10" t="n">
+      <c r="G95" s="10">
         <v>40</v>
       </c>
     </row>
-    <row r="96" s="10" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:8" s="10" customFormat="1" ht="22.35">
       <c r="A96" s="10" t="s">
         <v>8</v>
       </c>
@@ -3345,11 +3595,11 @@
       <c r="F96" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G96" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" s="10" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G96" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="10" customFormat="1" ht="22.35">
       <c r="A97" s="10" t="s">
         <v>8</v>
       </c>
@@ -3368,11 +3618,11 @@
       <c r="F97" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G97" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G97" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="15" customFormat="1">
       <c r="A98" s="15" t="s">
         <v>8</v>
       </c>
@@ -3391,11 +3641,11 @@
       <c r="F98" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G98" s="15" t="n">
+      <c r="G98" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="99" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:8" s="15" customFormat="1">
       <c r="A99" s="15" t="s">
         <v>8</v>
       </c>
@@ -3414,11 +3664,11 @@
       <c r="F99" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G99" s="15" t="n">
+      <c r="G99" s="15">
         <v>80</v>
       </c>
     </row>
-    <row r="100" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:8" s="15" customFormat="1">
       <c r="A100" s="15" t="s">
         <v>8</v>
       </c>
@@ -3437,11 +3687,11 @@
       <c r="F100" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G100" s="15" t="n">
+      <c r="G100" s="15">
         <v>44</v>
       </c>
     </row>
-    <row r="101" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:8" s="15" customFormat="1">
       <c r="A101" s="15" t="s">
         <v>8</v>
       </c>
@@ -3460,11 +3710,11 @@
       <c r="F101" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G101" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G101" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="15" customFormat="1">
       <c r="A102" s="15" t="s">
         <v>8</v>
       </c>
@@ -3483,11 +3733,11 @@
       <c r="F102" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G102" s="15" t="n">
+      <c r="G102" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="103" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:8" s="15" customFormat="1">
       <c r="A103" s="15" t="s">
         <v>8</v>
       </c>
@@ -3506,14 +3756,14 @@
       <c r="F103" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G103" s="15" t="n">
+      <c r="G103" s="15">
         <v>0</v>
       </c>
       <c r="H103" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="104" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:8" s="15" customFormat="1">
       <c r="A104" s="15" t="s">
         <v>8</v>
       </c>
@@ -3532,11 +3782,11 @@
       <c r="F104" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G104" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G104" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="15" customFormat="1">
       <c r="A105" s="15" t="s">
         <v>8</v>
       </c>
@@ -3555,11 +3805,11 @@
       <c r="F105" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="G105" s="15" t="n">
+      <c r="G105" s="15">
         <v>50</v>
       </c>
     </row>
-    <row r="106" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:8" s="18" customFormat="1">
       <c r="A106" s="18" t="s">
         <v>8</v>
       </c>
@@ -3578,11 +3828,11 @@
       <c r="F106" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="G106" s="18" t="n">
+      <c r="G106" s="18">
         <v>80</v>
       </c>
     </row>
-    <row r="107" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:8" s="18" customFormat="1">
       <c r="A107" s="18" t="s">
         <v>8</v>
       </c>
@@ -3601,11 +3851,11 @@
       <c r="F107" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="G107" s="18" t="n">
+      <c r="G107" s="18">
         <v>80</v>
       </c>
     </row>
-    <row r="108" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:8" s="18" customFormat="1">
       <c r="A108" s="18" t="s">
         <v>8</v>
       </c>
@@ -3624,11 +3874,11 @@
       <c r="F108" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="G108" s="18" t="n">
+      <c r="G108" s="18">
         <v>36</v>
       </c>
     </row>
-    <row r="109" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:8" s="18" customFormat="1">
       <c r="A109" s="18" t="s">
         <v>8</v>
       </c>
@@ -3647,11 +3897,11 @@
       <c r="F109" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G109" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G109" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="18" customFormat="1">
       <c r="A110" s="18" t="s">
         <v>8</v>
       </c>
@@ -3670,11 +3920,11 @@
       <c r="F110" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="G110" s="18" t="n">
+      <c r="G110" s="18">
         <v>60</v>
       </c>
     </row>
-    <row r="111" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:8" s="18" customFormat="1">
       <c r="A111" s="18" t="s">
         <v>8</v>
       </c>
@@ -3693,14 +3943,14 @@
       <c r="F111" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="G111" s="18" t="n">
+      <c r="G111" s="18">
         <v>0</v>
       </c>
       <c r="H111" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="112" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:8" s="18" customFormat="1">
       <c r="A112" s="18" t="s">
         <v>8</v>
       </c>
@@ -3719,11 +3969,11 @@
       <c r="F112" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G112" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G112" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="18" customFormat="1">
       <c r="A113" s="18" t="s">
         <v>8</v>
       </c>
@@ -3742,11 +3992,11 @@
       <c r="F113" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="G113" s="18" t="n">
+      <c r="G113" s="18">
         <v>50</v>
       </c>
     </row>
-    <row r="114" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:8" s="15" customFormat="1">
       <c r="A114" s="15" t="s">
         <v>8</v>
       </c>
@@ -3765,11 +4015,11 @@
       <c r="F114" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G114" s="15" t="n">
+      <c r="G114" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="115" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:8" s="15" customFormat="1">
       <c r="A115" s="15" t="s">
         <v>8</v>
       </c>
@@ -3788,11 +4038,11 @@
       <c r="F115" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="G115" s="15" t="n">
+      <c r="G115" s="15">
         <v>80</v>
       </c>
     </row>
-    <row r="116" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:8" s="15" customFormat="1">
       <c r="A116" s="15" t="s">
         <v>8</v>
       </c>
@@ -3811,11 +4061,11 @@
       <c r="F116" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="G116" s="15" t="n">
+      <c r="G116" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="117" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:8" s="15" customFormat="1">
       <c r="A117" s="15" t="s">
         <v>8</v>
       </c>
@@ -3834,11 +4084,11 @@
       <c r="F117" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G117" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G117" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="15" customFormat="1">
       <c r="A118" s="15" t="s">
         <v>8</v>
       </c>
@@ -3857,11 +4107,11 @@
       <c r="F118" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="G118" s="15" t="n">
+      <c r="G118" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="119" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:8" s="15" customFormat="1">
       <c r="A119" s="15" t="s">
         <v>8</v>
       </c>
@@ -3880,11 +4130,11 @@
       <c r="F119" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G119" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G119" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="15" customFormat="1">
       <c r="A120" s="15" t="s">
         <v>8</v>
       </c>
@@ -3903,11 +4153,11 @@
       <c r="F120" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="G120" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G120" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="15" customFormat="1">
       <c r="A121" s="15" t="s">
         <v>8</v>
       </c>
@@ -3926,11 +4176,11 @@
       <c r="F121" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G121" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G121" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="18" customFormat="1">
       <c r="A122" s="18" t="s">
         <v>8</v>
       </c>
@@ -3949,14 +4199,14 @@
       <c r="F122" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="G122" s="18" t="n">
+      <c r="G122" s="18">
         <v>0</v>
       </c>
       <c r="H122" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="123" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:8" s="18" customFormat="1">
       <c r="A123" s="18" t="s">
         <v>8</v>
       </c>
@@ -3975,14 +4225,14 @@
       <c r="F123" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="G123" s="18" t="n">
+      <c r="G123" s="18">
         <v>0</v>
       </c>
       <c r="H123" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="124" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:8" s="18" customFormat="1">
       <c r="A124" s="18" t="s">
         <v>8</v>
       </c>
@@ -4001,11 +4251,11 @@
       <c r="F124" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G124" s="18" t="n">
+      <c r="G124" s="18">
         <v>36</v>
       </c>
     </row>
-    <row r="125" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:8" s="18" customFormat="1">
       <c r="A125" s="18" t="s">
         <v>8</v>
       </c>
@@ -4024,14 +4274,14 @@
       <c r="F125" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="18" t="n">
+      <c r="G125" s="18">
         <v>0</v>
       </c>
       <c r="H125" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="126" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:8" s="18" customFormat="1">
       <c r="A126" s="18" t="s">
         <v>8</v>
       </c>
@@ -4050,14 +4300,14 @@
       <c r="F126" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="G126" s="18" t="n">
+      <c r="G126" s="18">
         <v>0</v>
       </c>
       <c r="H126" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="127" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:8" s="18" customFormat="1">
       <c r="A127" s="18" t="s">
         <v>8</v>
       </c>
@@ -4076,11 +4326,11 @@
       <c r="F127" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G127" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G127" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="18" customFormat="1">
       <c r="A128" s="18" t="s">
         <v>8</v>
       </c>
@@ -4099,11 +4349,11 @@
       <c r="F128" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G128" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G128" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="18" customFormat="1">
       <c r="A129" s="18" t="s">
         <v>8</v>
       </c>
@@ -4122,14 +4372,14 @@
       <c r="F129" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="G129" s="18" t="n">
+      <c r="G129" s="18">
         <v>0</v>
       </c>
       <c r="H129" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="130" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:8" s="15" customFormat="1">
       <c r="A130" s="15" t="s">
         <v>8</v>
       </c>
@@ -4148,14 +4398,14 @@
       <c r="F130" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G130" s="15" t="n">
+      <c r="G130" s="15">
         <v>0</v>
       </c>
       <c r="H130" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="131" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:8" s="15" customFormat="1">
       <c r="A131" s="15" t="s">
         <v>8</v>
       </c>
@@ -4174,11 +4424,11 @@
       <c r="F131" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G131" s="15" t="n">
+      <c r="G131" s="15">
         <v>70</v>
       </c>
     </row>
-    <row r="132" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:8" s="15" customFormat="1">
       <c r="A132" s="15" t="s">
         <v>8</v>
       </c>
@@ -4197,11 +4447,11 @@
       <c r="F132" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="G132" s="15" t="n">
+      <c r="G132" s="15">
         <v>36</v>
       </c>
     </row>
-    <row r="133" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:8" s="15" customFormat="1">
       <c r="A133" s="15" t="s">
         <v>8</v>
       </c>
@@ -4220,11 +4470,11 @@
       <c r="F133" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G133" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G133" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="15" customFormat="1">
       <c r="A134" s="15" t="s">
         <v>8</v>
       </c>
@@ -4243,11 +4493,11 @@
       <c r="F134" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G134" s="15" t="n">
+      <c r="G134" s="15">
         <v>50</v>
       </c>
     </row>
-    <row r="135" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:8" s="15" customFormat="1">
       <c r="A135" s="15" t="s">
         <v>8</v>
       </c>
@@ -4266,11 +4516,11 @@
       <c r="F135" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="G135" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G135" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="15" customFormat="1">
       <c r="A136" s="15" t="s">
         <v>8</v>
       </c>
@@ -4289,11 +4539,11 @@
       <c r="F136" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="G136" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G136" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="15" customFormat="1">
       <c r="A137" s="15" t="s">
         <v>8</v>
       </c>
@@ -4312,14 +4562,14 @@
       <c r="F137" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="G137" s="15" t="n">
+      <c r="G137" s="15">
         <v>0</v>
       </c>
       <c r="H137" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="138" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:8" s="18" customFormat="1">
       <c r="A138" s="18" t="s">
         <v>8</v>
       </c>
@@ -4338,11 +4588,11 @@
       <c r="F138" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G138" s="18" t="n">
+      <c r="G138" s="18">
         <v>60</v>
       </c>
     </row>
-    <row r="139" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:8" s="18" customFormat="1">
       <c r="A139" s="18" t="s">
         <v>8</v>
       </c>
@@ -4361,11 +4611,11 @@
       <c r="F139" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G139" s="18" t="n">
+      <c r="G139" s="18">
         <v>70</v>
       </c>
     </row>
-    <row r="140" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:8" s="18" customFormat="1">
       <c r="A140" s="18" t="s">
         <v>8</v>
       </c>
@@ -4384,11 +4634,11 @@
       <c r="F140" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G140" s="18" t="n">
+      <c r="G140" s="18">
         <v>40</v>
       </c>
     </row>
-    <row r="141" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:8" s="18" customFormat="1">
       <c r="A141" s="18" t="s">
         <v>8</v>
       </c>
@@ -4407,11 +4657,11 @@
       <c r="F141" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="G141" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G141" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="18" customFormat="1">
       <c r="A142" s="18" t="s">
         <v>8</v>
       </c>
@@ -4430,11 +4680,11 @@
       <c r="F142" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="G142" s="18" t="n">
+      <c r="G142" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="143" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:8" s="18" customFormat="1">
       <c r="A143" s="18" t="s">
         <v>8</v>
       </c>
@@ -4453,14 +4703,14 @@
       <c r="F143" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G143" s="18" t="n">
+      <c r="G143" s="18">
         <v>0</v>
       </c>
       <c r="H143" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="144" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:8" s="18" customFormat="1">
       <c r="A144" s="18" t="s">
         <v>8</v>
       </c>
@@ -4479,14 +4729,14 @@
       <c r="F144" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G144" s="18" t="n">
+      <c r="G144" s="18">
         <v>0</v>
       </c>
       <c r="H144" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="145" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:8" s="18" customFormat="1">
       <c r="A145" s="18" t="s">
         <v>8</v>
       </c>
@@ -4505,14 +4755,14 @@
       <c r="F145" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="G145" s="18" t="n">
+      <c r="G145" s="18">
         <v>0</v>
       </c>
       <c r="H145" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="146" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:8" s="15" customFormat="1">
       <c r="A146" s="15" t="s">
         <v>8</v>
       </c>
@@ -4531,11 +4781,11 @@
       <c r="F146" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="G146" s="15" t="n">
+      <c r="G146" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="147" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:8" s="15" customFormat="1">
       <c r="A147" s="15" t="s">
         <v>8</v>
       </c>
@@ -4554,11 +4804,11 @@
       <c r="F147" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="G147" s="15" t="n">
+      <c r="G147" s="15">
         <v>70</v>
       </c>
     </row>
-    <row r="148" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:8" s="15" customFormat="1">
       <c r="A148" s="15" t="s">
         <v>8</v>
       </c>
@@ -4577,11 +4827,11 @@
       <c r="F148" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G148" s="15" t="n">
+      <c r="G148" s="15">
         <v>72</v>
       </c>
     </row>
-    <row r="149" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:8" s="15" customFormat="1">
       <c r="A149" s="15" t="s">
         <v>8</v>
       </c>
@@ -4600,11 +4850,11 @@
       <c r="F149" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="G149" s="15" t="n">
+      <c r="G149" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="150" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:8" s="15" customFormat="1">
       <c r="A150" s="15" t="s">
         <v>8</v>
       </c>
@@ -4623,11 +4873,11 @@
       <c r="F150" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="G150" s="15" t="n">
+      <c r="G150" s="15">
         <v>50</v>
       </c>
     </row>
-    <row r="151" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:8" s="15" customFormat="1">
       <c r="A151" s="15" t="s">
         <v>8</v>
       </c>
@@ -4646,11 +4896,11 @@
       <c r="F151" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="G151" s="15" t="n">
+      <c r="G151" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="152" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:8" s="15" customFormat="1">
       <c r="A152" s="15" t="s">
         <v>8</v>
       </c>
@@ -4669,14 +4919,14 @@
       <c r="F152" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="G152" s="15" t="n">
+      <c r="G152" s="15">
         <v>0</v>
       </c>
       <c r="H152" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="153" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:8" s="15" customFormat="1">
       <c r="A153" s="15" t="s">
         <v>8</v>
       </c>
@@ -4695,14 +4945,14 @@
       <c r="F153" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="G153" s="15" t="n">
+      <c r="G153" s="15">
         <v>0</v>
       </c>
       <c r="H153" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="154" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:8" s="18" customFormat="1">
       <c r="A154" s="18" t="s">
         <v>8</v>
       </c>
@@ -4721,11 +4971,11 @@
       <c r="F154" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G154" s="18" t="n">
+      <c r="G154" s="18">
         <v>40</v>
       </c>
     </row>
-    <row r="155" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:8" s="18" customFormat="1">
       <c r="A155" s="18" t="s">
         <v>8</v>
       </c>
@@ -4744,11 +4994,11 @@
       <c r="F155" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="G155" s="18" t="n">
+      <c r="G155" s="18">
         <v>70</v>
       </c>
     </row>
-    <row r="156" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:8" s="18" customFormat="1">
       <c r="A156" s="18" t="s">
         <v>8</v>
       </c>
@@ -4767,11 +5017,11 @@
       <c r="F156" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="G156" s="18" t="n">
+      <c r="G156" s="18">
         <v>72</v>
       </c>
     </row>
-    <row r="157" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:8" s="18" customFormat="1">
       <c r="A157" s="18" t="s">
         <v>8</v>
       </c>
@@ -4790,11 +5040,11 @@
       <c r="F157" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="G157" s="18" t="n">
+      <c r="G157" s="18">
         <v>40</v>
       </c>
     </row>
-    <row r="158" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:8" s="18" customFormat="1">
       <c r="A158" s="18" t="s">
         <v>8</v>
       </c>
@@ -4813,11 +5063,11 @@
       <c r="F158" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="G158" s="18" t="n">
+      <c r="G158" s="18">
         <v>60</v>
       </c>
     </row>
-    <row r="159" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:8" s="18" customFormat="1">
       <c r="A159" s="18" t="s">
         <v>8</v>
       </c>
@@ -4836,14 +5086,14 @@
       <c r="F159" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G159" s="18" t="n">
+      <c r="G159" s="18">
         <v>0</v>
       </c>
       <c r="H159" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="160" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:8" s="18" customFormat="1">
       <c r="A160" s="18" t="s">
         <v>8</v>
       </c>
@@ -4862,14 +5112,14 @@
       <c r="F160" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="G160" s="18" t="n">
+      <c r="G160" s="18">
         <v>0</v>
       </c>
       <c r="H160" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="161" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:8" s="18" customFormat="1">
       <c r="A161" s="18" t="s">
         <v>8</v>
       </c>
@@ -4888,14 +5138,14 @@
       <c r="F161" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="G161" s="18" t="n">
+      <c r="G161" s="18">
         <v>0</v>
       </c>
       <c r="H161" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="162" s="15" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:8" s="15" customFormat="1" ht="22.35">
       <c r="A162" s="15" t="s">
         <v>8</v>
       </c>
@@ -4914,11 +5164,11 @@
       <c r="F162" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="G162" s="15" t="n">
+      <c r="G162" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="163" s="15" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:8" s="15" customFormat="1" ht="22.35">
       <c r="A163" s="15" t="s">
         <v>8</v>
       </c>
@@ -4937,11 +5187,11 @@
       <c r="F163" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="G163" s="15" t="n">
+      <c r="G163" s="15">
         <v>70</v>
       </c>
     </row>
-    <row r="164" s="15" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:8" s="15" customFormat="1" ht="22.35">
       <c r="A164" s="15" t="s">
         <v>8</v>
       </c>
@@ -4960,11 +5210,11 @@
       <c r="F164" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G164" s="15" t="n">
+      <c r="G164" s="15">
         <v>68</v>
       </c>
     </row>
-    <row r="165" s="15" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:8" s="15" customFormat="1" ht="22.35">
       <c r="A165" s="15" t="s">
         <v>8</v>
       </c>
@@ -4983,11 +5233,11 @@
       <c r="F165" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="G165" s="15" t="n">
+      <c r="G165" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="166" s="15" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:8" s="15" customFormat="1" ht="22.35">
       <c r="A166" s="15" t="s">
         <v>8</v>
       </c>
@@ -5006,11 +5256,11 @@
       <c r="F166" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="G166" s="15" t="n">
+      <c r="G166" s="15">
         <v>50</v>
       </c>
     </row>
-    <row r="167" s="15" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:8" s="15" customFormat="1" ht="22.35">
       <c r="A167" s="15" t="s">
         <v>8</v>
       </c>
@@ -5029,11 +5279,11 @@
       <c r="F167" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="G167" s="15" t="n">
+      <c r="G167" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="168" s="15" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:8" s="15" customFormat="1" ht="22.35">
       <c r="A168" s="15" t="s">
         <v>8</v>
       </c>
@@ -5052,11 +5302,11 @@
       <c r="F168" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G168" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" s="15" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G168" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" s="15" customFormat="1" ht="22.35">
       <c r="A169" s="15" t="s">
         <v>8</v>
       </c>
@@ -5075,14 +5325,14 @@
       <c r="F169" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="G169" s="15" t="n">
+      <c r="G169" s="15">
         <v>0</v>
       </c>
       <c r="H169" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="170" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:8" s="18" customFormat="1">
       <c r="A170" s="18" t="s">
         <v>8</v>
       </c>
@@ -5101,11 +5351,11 @@
       <c r="F170" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="G170" s="18" t="n">
+      <c r="G170" s="18">
         <v>40</v>
       </c>
     </row>
-    <row r="171" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:8" s="18" customFormat="1">
       <c r="A171" s="18" t="s">
         <v>8</v>
       </c>
@@ -5124,11 +5374,11 @@
       <c r="F171" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="G171" s="18" t="n">
+      <c r="G171" s="18">
         <v>50</v>
       </c>
     </row>
-    <row r="172" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:8" s="18" customFormat="1">
       <c r="A172" s="18" t="s">
         <v>8</v>
       </c>
@@ -5147,11 +5397,11 @@
       <c r="F172" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="G172" s="18" t="n">
+      <c r="G172" s="18">
         <v>32</v>
       </c>
     </row>
-    <row r="173" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:8" s="18" customFormat="1">
       <c r="A173" s="18" t="s">
         <v>8</v>
       </c>
@@ -5170,11 +5420,11 @@
       <c r="F173" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="G173" s="18" t="n">
+      <c r="G173" s="18">
         <v>40</v>
       </c>
     </row>
-    <row r="174" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:8" s="18" customFormat="1">
       <c r="A174" s="18" t="s">
         <v>8</v>
       </c>
@@ -5193,14 +5443,14 @@
       <c r="F174" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="G174" s="18" t="n">
+      <c r="G174" s="18">
         <v>0</v>
       </c>
       <c r="H174" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="175" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:8" s="18" customFormat="1">
       <c r="A175" s="18" t="s">
         <v>8</v>
       </c>
@@ -5219,11 +5469,11 @@
       <c r="F175" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G175" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G175" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" s="18" customFormat="1">
       <c r="A176" s="18" t="s">
         <v>8</v>
       </c>
@@ -5242,11 +5492,11 @@
       <c r="F176" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="G176" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G176" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" s="18" customFormat="1">
       <c r="A177" s="18" t="s">
         <v>8</v>
       </c>
@@ -5265,11 +5515,11 @@
       <c r="F177" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="G177" s="18" t="n">
+      <c r="G177" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="178" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:8" s="15" customFormat="1">
       <c r="A178" s="15" t="s">
         <v>8</v>
       </c>
@@ -5288,11 +5538,11 @@
       <c r="F178" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G178" s="15" t="n">
+      <c r="G178" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="179" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:8" s="15" customFormat="1">
       <c r="A179" s="15" t="s">
         <v>8</v>
       </c>
@@ -5311,11 +5561,11 @@
       <c r="F179" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="G179" s="15" t="n">
+      <c r="G179" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="180" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:8" s="15" customFormat="1">
       <c r="A180" s="15" t="s">
         <v>8</v>
       </c>
@@ -5334,11 +5584,11 @@
       <c r="F180" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="G180" s="15" t="n">
+      <c r="G180" s="15">
         <v>32</v>
       </c>
     </row>
-    <row r="181" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:8" s="15" customFormat="1">
       <c r="A181" s="15" t="s">
         <v>8</v>
       </c>
@@ -5357,11 +5607,11 @@
       <c r="F181" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="G181" s="15" t="n">
+      <c r="G181" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="182" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:8" s="15" customFormat="1">
       <c r="A182" s="15" t="s">
         <v>8</v>
       </c>
@@ -5380,14 +5630,14 @@
       <c r="F182" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="G182" s="15" t="n">
+      <c r="G182" s="15">
         <v>0</v>
       </c>
       <c r="H182" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="183" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:8" s="15" customFormat="1">
       <c r="A183" s="15" t="s">
         <v>8</v>
       </c>
@@ -5406,11 +5656,11 @@
       <c r="F183" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="G183" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G183" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" s="15" customFormat="1">
       <c r="A184" s="15" t="s">
         <v>8</v>
       </c>
@@ -5429,11 +5679,11 @@
       <c r="F184" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="G184" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G184" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" s="15" customFormat="1">
       <c r="A185" s="15" t="s">
         <v>8</v>
       </c>
@@ -5452,11 +5702,11 @@
       <c r="F185" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="G185" s="15" t="n">
+      <c r="G185" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="186" s="18" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:8" s="18" customFormat="1" ht="22.35">
       <c r="A186" s="18" t="s">
         <v>8</v>
       </c>
@@ -5475,14 +5725,14 @@
       <c r="F186" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="G186" s="18" t="n">
+      <c r="G186" s="18">
         <v>0</v>
       </c>
       <c r="H186" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="187" s="18" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:8" s="18" customFormat="1" ht="22.35">
       <c r="A187" s="18" t="s">
         <v>8</v>
       </c>
@@ -5501,11 +5751,11 @@
       <c r="F187" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="G187" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" s="18" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G187" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" s="18" customFormat="1" ht="22.35">
       <c r="A188" s="18" t="s">
         <v>8</v>
       </c>
@@ -5524,11 +5774,11 @@
       <c r="F188" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G188" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" s="18" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G188" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" s="18" customFormat="1" ht="22.35">
       <c r="A189" s="18" t="s">
         <v>8</v>
       </c>
@@ -5547,11 +5797,11 @@
       <c r="F189" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="G189" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" s="18" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G189" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" s="18" customFormat="1" ht="22.35">
       <c r="A190" s="18" t="s">
         <v>8</v>
       </c>
@@ -5570,11 +5820,11 @@
       <c r="F190" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="G190" s="18" t="n">
+      <c r="G190" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="191" s="18" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:8" s="18" customFormat="1" ht="22.35">
       <c r="A191" s="18" t="s">
         <v>8</v>
       </c>
@@ -5593,11 +5843,11 @@
       <c r="F191" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="G191" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" s="18" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G191" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" s="18" customFormat="1" ht="22.35">
       <c r="A192" s="18" t="s">
         <v>8</v>
       </c>
@@ -5616,11 +5866,11 @@
       <c r="F192" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G192" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" s="18" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G192" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" s="18" customFormat="1" ht="22.35">
       <c r="A193" s="18" t="s">
         <v>8</v>
       </c>
@@ -5639,11 +5889,11 @@
       <c r="F193" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G193" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G193" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" s="25" customFormat="1">
       <c r="B194" s="25" t="s">
         <v>223</v>
       </c>
@@ -5659,11 +5909,11 @@
       <c r="F194" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="G194" s="25" t="n">
+      <c r="G194" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="195" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:8" s="25" customFormat="1">
       <c r="B195" s="25" t="s">
         <v>223</v>
       </c>
@@ -5679,11 +5929,11 @@
       <c r="F195" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G195" s="25" t="n">
+      <c r="G195" s="25">
         <v>85</v>
       </c>
     </row>
-    <row r="196" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:8" s="25" customFormat="1">
       <c r="B196" s="25" t="s">
         <v>223</v>
       </c>
@@ -5699,11 +5949,11 @@
       <c r="F196" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="G196" s="25" t="n">
+      <c r="G196" s="25">
         <v>80</v>
       </c>
     </row>
-    <row r="197" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:8" s="25" customFormat="1">
       <c r="B197" s="25" t="s">
         <v>223</v>
       </c>
@@ -5719,14 +5969,14 @@
       <c r="F197" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="G197" s="25" t="n">
+      <c r="G197" s="25">
         <v>0</v>
       </c>
       <c r="H197" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="198" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:8" s="25" customFormat="1">
       <c r="B198" s="25" t="s">
         <v>223</v>
       </c>
@@ -5742,7 +5992,7 @@
       <c r="F198" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="G198" s="25" t="n">
+      <c r="G198" s="25">
         <v>0</v>
       </c>
       <c r="H198" s="25" t="s">
@@ -5750,10 +6000,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>

--- a/test-estrazione-dati/raccolta-test2.xlsx
+++ b/test-estrazione-dati/raccolta-test2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28507"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_81AF44DAE1E8A3A8806054EC8B44C6716BF5A3BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF67670C-6B74-4E25-B225-29286531B734}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_81AF44DAE1E8A3A8806054EC8B44C6716BF5A3BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4425D45D-DEAE-4277-A9F4-A0BA1F0F9EAD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="231">
   <si>
     <t>Macchina</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>2:38,83</t>
+  </si>
+  <si>
+    <t>tutti i test sono stati eseguiti senza tool per output strutturato</t>
   </si>
   <si>
     <t>prompt7</t>
@@ -1330,7 +1333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1">
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="46.5">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1352,6 +1355,9 @@
       <c r="G2" s="7">
         <v>60</v>
       </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
@@ -1367,16 +1373,16 @@
         <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1">
@@ -1393,10 +1399,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -1416,16 +1422,16 @@
         <v>11</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7">
         <v>20</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="23.65">
@@ -1442,16 +1448,16 @@
         <v>11</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1">
@@ -1468,10 +1474,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1491,10 +1497,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -1514,10 +1520,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -1531,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>11</v>
@@ -1540,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="10">
         <v>60</v>
@@ -1554,16 +1560,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="10">
         <v>80</v>
@@ -1577,16 +1583,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="10">
         <v>40</v>
@@ -1600,16 +1606,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" s="10">
         <v>20</v>
@@ -1623,16 +1629,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" s="10">
         <v>50</v>
@@ -1646,16 +1652,16 @@
         <v>9</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="10">
         <v>0</v>
@@ -1669,16 +1675,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" s="10">
         <v>0</v>
@@ -1692,16 +1698,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="F17" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" s="10">
         <v>0</v>
@@ -1715,7 +1721,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>11</v>
@@ -1724,7 +1730,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" s="7">
         <v>40</v>
@@ -1738,16 +1744,16 @@
         <v>9</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7">
         <v>70</v>
@@ -1761,16 +1767,16 @@
         <v>9</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7">
         <v>44</v>
@@ -1784,22 +1790,22 @@
         <v>9</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1">
@@ -1810,22 +1816,22 @@
         <v>9</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1">
@@ -1836,16 +1842,16 @@
         <v>9</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -1859,16 +1865,16 @@
         <v>9</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -1882,16 +1888,16 @@
         <v>9</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -1905,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>11</v>
@@ -1914,13 +1920,13 @@
         <v>12</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="10" customFormat="1">
@@ -1931,16 +1937,16 @@
         <v>9</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
@@ -1954,22 +1960,22 @@
         <v>9</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="10" customFormat="1">
@@ -1980,16 +1986,16 @@
         <v>9</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
@@ -2003,22 +2009,22 @@
         <v>9</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="10" customFormat="1">
@@ -2029,16 +2035,16 @@
         <v>9</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
@@ -2052,22 +2058,22 @@
         <v>9</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="10" customFormat="1">
@@ -2078,22 +2084,22 @@
         <v>9</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="7" customFormat="1">
@@ -2104,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>11</v>
@@ -2113,13 +2119,13 @@
         <v>12</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34" s="7">
         <v>0</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="7" customFormat="1">
@@ -2130,16 +2136,16 @@
         <v>9</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G35" s="7">
         <v>0</v>
@@ -2153,22 +2159,22 @@
         <v>9</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="7" customFormat="1">
@@ -2179,16 +2185,16 @@
         <v>9</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G37" s="7">
         <v>0</v>
@@ -2202,22 +2208,22 @@
         <v>9</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="7" customFormat="1">
@@ -2228,16 +2234,16 @@
         <v>9</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G39" s="7">
         <v>0</v>
@@ -2251,16 +2257,16 @@
         <v>9</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G40" s="7">
         <v>0</v>
@@ -2274,22 +2280,22 @@
         <v>9</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G41" s="7">
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="10" customFormat="1">
@@ -2300,7 +2306,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>11</v>
@@ -2309,7 +2315,7 @@
         <v>12</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -2323,16 +2329,16 @@
         <v>9</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
@@ -2346,16 +2352,16 @@
         <v>9</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
@@ -2369,16 +2375,16 @@
         <v>9</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G45" s="10">
         <v>0</v>
@@ -2392,16 +2398,16 @@
         <v>9</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G46" s="10">
         <v>10</v>
@@ -2415,22 +2421,22 @@
         <v>9</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" s="10">
         <v>0</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="10" customFormat="1">
@@ -2441,16 +2447,16 @@
         <v>9</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G48" s="10">
         <v>0</v>
@@ -2464,16 +2470,16 @@
         <v>9</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
@@ -2487,7 +2493,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>11</v>
@@ -2496,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G50" s="7">
         <v>40</v>
@@ -2510,16 +2516,16 @@
         <v>9</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G51" s="7">
         <v>0</v>
@@ -2533,16 +2539,16 @@
         <v>9</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G52" s="7">
         <v>0</v>
@@ -2556,16 +2562,16 @@
         <v>9</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G53" s="7">
         <v>0</v>
@@ -2579,22 +2585,22 @@
         <v>9</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G54" s="7">
         <v>0</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="7" customFormat="1">
@@ -2605,16 +2611,16 @@
         <v>9</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G55" s="7">
         <v>40</v>
@@ -2628,22 +2634,22 @@
         <v>9</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G56" s="7">
         <v>0</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="7" customFormat="1">
@@ -2654,16 +2660,16 @@
         <v>9</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" s="7">
         <v>0</v>
@@ -2677,7 +2683,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>11</v>
@@ -2686,7 +2692,7 @@
         <v>12</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G58" s="10">
         <v>60</v>
@@ -2700,22 +2706,22 @@
         <v>9</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G59" s="10">
         <v>0</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="10" customFormat="1">
@@ -2726,16 +2732,16 @@
         <v>9</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G60" s="10">
         <v>0</v>
@@ -2749,16 +2755,16 @@
         <v>9</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
@@ -2772,22 +2778,22 @@
         <v>9</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G62" s="10">
         <v>0</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="10" customFormat="1">
@@ -2798,16 +2804,16 @@
         <v>9</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G63" s="10">
         <v>40</v>
@@ -2821,22 +2827,22 @@
         <v>9</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="10" customFormat="1">
@@ -2847,16 +2853,16 @@
         <v>9</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -2870,7 +2876,7 @@
         <v>9</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>11</v>
@@ -2879,7 +2885,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G66" s="7">
         <v>40</v>
@@ -2893,22 +2899,22 @@
         <v>9</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G67" s="7">
         <v>0</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="7" customFormat="1" ht="22.35">
@@ -2919,22 +2925,22 @@
         <v>9</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G68" s="7">
         <v>0</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="7" customFormat="1" ht="22.35">
@@ -2945,16 +2951,16 @@
         <v>9</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G69" s="7">
         <v>20</v>
@@ -2968,22 +2974,22 @@
         <v>9</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G70" s="7">
         <v>0</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="7" customFormat="1" ht="22.35">
@@ -2994,16 +3000,16 @@
         <v>9</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G71" s="7">
         <v>20</v>
@@ -3017,22 +3023,22 @@
         <v>9</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G72" s="7">
         <v>0</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="7" customFormat="1" ht="22.35">
@@ -3043,22 +3049,22 @@
         <v>9</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G73" s="7">
         <v>0</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="10" customFormat="1">
@@ -3069,7 +3075,7 @@
         <v>9</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>11</v>
@@ -3092,16 +3098,16 @@
         <v>9</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G75" s="10">
         <v>0</v>
@@ -3115,22 +3121,22 @@
         <v>9</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G76" s="10">
         <v>0</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="10" customFormat="1">
@@ -3141,16 +3147,16 @@
         <v>9</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G77" s="10">
         <v>0</v>
@@ -3164,16 +3170,16 @@
         <v>9</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G78" s="10">
         <v>20</v>
@@ -3187,16 +3193,16 @@
         <v>9</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G79" s="10">
         <v>0</v>
@@ -3210,16 +3216,16 @@
         <v>9</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G80" s="10">
         <v>0</v>
@@ -3233,16 +3239,16 @@
         <v>9</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G81" s="10">
         <v>20</v>
@@ -3256,7 +3262,7 @@
         <v>9</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>11</v>
@@ -3265,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G82" s="7">
         <v>0</v>
@@ -3279,16 +3285,16 @@
         <v>9</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G83" s="7">
         <v>0</v>
@@ -3302,22 +3308,22 @@
         <v>9</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G84" s="7">
         <v>0</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="7" customFormat="1">
@@ -3328,16 +3334,16 @@
         <v>9</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G85" s="7">
         <v>0</v>
@@ -3351,16 +3357,16 @@
         <v>9</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G86" s="7">
         <v>20</v>
@@ -3374,16 +3380,16 @@
         <v>9</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G87" s="7">
         <v>20</v>
@@ -3397,16 +3403,16 @@
         <v>9</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G88" s="7">
         <v>0</v>
@@ -3420,16 +3426,16 @@
         <v>9</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G89" s="7">
         <v>20</v>
@@ -3443,7 +3449,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>11</v>
@@ -3452,7 +3458,7 @@
         <v>12</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G90" s="10">
         <v>0</v>
@@ -3466,16 +3472,16 @@
         <v>9</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G91" s="10">
         <v>0</v>
@@ -3489,22 +3495,22 @@
         <v>9</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G92" s="10">
         <v>0</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="10" customFormat="1" ht="22.35">
@@ -3515,16 +3521,16 @@
         <v>9</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G93" s="10">
         <v>0</v>
@@ -3538,16 +3544,16 @@
         <v>9</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G94" s="10">
         <v>0</v>
@@ -3561,16 +3567,16 @@
         <v>9</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G95" s="10">
         <v>40</v>
@@ -3584,16 +3590,16 @@
         <v>9</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G96" s="10">
         <v>0</v>
@@ -3607,16 +3613,16 @@
         <v>9</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G97" s="10">
         <v>0</v>
@@ -3630,7 +3636,7 @@
         <v>9</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>11</v>
@@ -3639,7 +3645,7 @@
         <v>12</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G98" s="15">
         <v>40</v>
@@ -3653,16 +3659,16 @@
         <v>9</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G99" s="15">
         <v>80</v>
@@ -3676,16 +3682,16 @@
         <v>9</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G100" s="15">
         <v>44</v>
@@ -3699,16 +3705,16 @@
         <v>9</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G101" s="15">
         <v>0</v>
@@ -3722,16 +3728,16 @@
         <v>9</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G102" s="15">
         <v>60</v>
@@ -3745,22 +3751,22 @@
         <v>9</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G103" s="15">
         <v>0</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:8" s="15" customFormat="1">
@@ -3771,16 +3777,16 @@
         <v>9</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D104" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G104" s="15">
         <v>0</v>
@@ -3794,16 +3800,16 @@
         <v>9</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G105" s="15">
         <v>50</v>
@@ -3817,7 +3823,7 @@
         <v>9</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>11</v>
@@ -3826,7 +3832,7 @@
         <v>12</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G106" s="18">
         <v>80</v>
@@ -3840,16 +3846,16 @@
         <v>9</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G107" s="18">
         <v>80</v>
@@ -3863,16 +3869,16 @@
         <v>9</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G108" s="18">
         <v>36</v>
@@ -3886,16 +3892,16 @@
         <v>9</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" s="18">
         <v>0</v>
@@ -3909,16 +3915,16 @@
         <v>9</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G110" s="18">
         <v>60</v>
@@ -3932,22 +3938,22 @@
         <v>9</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G111" s="18">
         <v>0</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="18" customFormat="1">
@@ -3958,16 +3964,16 @@
         <v>9</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G112" s="18">
         <v>0</v>
@@ -3981,16 +3987,16 @@
         <v>9</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G113" s="18">
         <v>50</v>
@@ -4004,7 +4010,7 @@
         <v>9</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>11</v>
@@ -4013,7 +4019,7 @@
         <v>12</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G114" s="15">
         <v>60</v>
@@ -4027,16 +4033,16 @@
         <v>9</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F115" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G115" s="15">
         <v>80</v>
@@ -4050,16 +4056,16 @@
         <v>9</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G116" s="15">
         <v>40</v>
@@ -4073,16 +4079,16 @@
         <v>9</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G117" s="15">
         <v>0</v>
@@ -4096,16 +4102,16 @@
         <v>9</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G118" s="15">
         <v>20</v>
@@ -4119,16 +4125,16 @@
         <v>9</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G119" s="15">
         <v>0</v>
@@ -4142,16 +4148,16 @@
         <v>9</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G120" s="15">
         <v>0</v>
@@ -4165,16 +4171,16 @@
         <v>9</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G121" s="15">
         <v>0</v>
@@ -4188,7 +4194,7 @@
         <v>9</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>11</v>
@@ -4197,13 +4203,13 @@
         <v>12</v>
       </c>
       <c r="F122" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G122" s="18">
         <v>0</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="18" customFormat="1">
@@ -4214,22 +4220,22 @@
         <v>9</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G123" s="18">
         <v>0</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="18" customFormat="1">
@@ -4240,16 +4246,16 @@
         <v>9</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D124" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F124" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G124" s="18">
         <v>36</v>
@@ -4263,22 +4269,22 @@
         <v>9</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F125" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G125" s="18">
         <v>0</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="18" customFormat="1">
@@ -4289,22 +4295,22 @@
         <v>9</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F126" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G126" s="18">
         <v>0</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="18" customFormat="1">
@@ -4315,16 +4321,16 @@
         <v>9</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G127" s="18">
         <v>0</v>
@@ -4338,16 +4344,16 @@
         <v>9</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F128" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G128" s="18">
         <v>0</v>
@@ -4361,22 +4367,22 @@
         <v>9</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F129" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G129" s="18">
         <v>0</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:8" s="15" customFormat="1">
@@ -4387,7 +4393,7 @@
         <v>9</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>11</v>
@@ -4396,13 +4402,13 @@
         <v>12</v>
       </c>
       <c r="F130" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G130" s="15">
         <v>0</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="1:8" s="15" customFormat="1">
@@ -4413,16 +4419,16 @@
         <v>9</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F131" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G131" s="15">
         <v>70</v>
@@ -4436,16 +4442,16 @@
         <v>9</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F132" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G132" s="15">
         <v>36</v>
@@ -4459,16 +4465,16 @@
         <v>9</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F133" s="24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G133" s="15">
         <v>0</v>
@@ -4482,16 +4488,16 @@
         <v>9</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F134" s="24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G134" s="15">
         <v>50</v>
@@ -4505,16 +4511,16 @@
         <v>9</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F135" s="24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G135" s="15">
         <v>0</v>
@@ -4528,16 +4534,16 @@
         <v>9</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D136" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F136" s="24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G136" s="15">
         <v>0</v>
@@ -4551,22 +4557,22 @@
         <v>9</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F137" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G137" s="15">
         <v>0</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="18" customFormat="1">
@@ -4577,7 +4583,7 @@
         <v>9</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>11</v>
@@ -4586,7 +4592,7 @@
         <v>12</v>
       </c>
       <c r="F138" s="22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G138" s="18">
         <v>60</v>
@@ -4600,16 +4606,16 @@
         <v>9</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D139" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E139" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G139" s="18">
         <v>70</v>
@@ -4623,16 +4629,16 @@
         <v>9</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E140" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G140" s="18">
         <v>40</v>
@@ -4646,16 +4652,16 @@
         <v>9</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D141" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E141" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G141" s="18">
         <v>0</v>
@@ -4669,16 +4675,16 @@
         <v>9</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E142" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F142" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G142" s="18">
         <v>10</v>
@@ -4692,22 +4698,22 @@
         <v>9</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D143" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E143" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F143" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G143" s="18">
         <v>0</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:8" s="18" customFormat="1">
@@ -4718,22 +4724,22 @@
         <v>9</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F144" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G144" s="18">
         <v>0</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:8" s="18" customFormat="1">
@@ -4744,22 +4750,22 @@
         <v>9</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F145" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G145" s="18">
         <v>0</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:8" s="15" customFormat="1">
@@ -4770,7 +4776,7 @@
         <v>9</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>11</v>
@@ -4779,7 +4785,7 @@
         <v>12</v>
       </c>
       <c r="F146" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G146" s="15">
         <v>40</v>
@@ -4793,16 +4799,16 @@
         <v>9</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F147" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G147" s="15">
         <v>70</v>
@@ -4816,16 +4822,16 @@
         <v>9</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F148" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G148" s="15">
         <v>72</v>
@@ -4839,16 +4845,16 @@
         <v>9</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G149" s="15">
         <v>40</v>
@@ -4862,16 +4868,16 @@
         <v>9</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G150" s="15">
         <v>50</v>
@@ -4885,16 +4891,16 @@
         <v>9</v>
       </c>
       <c r="C151" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F151" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G151" s="15">
         <v>40</v>
@@ -4908,22 +4914,22 @@
         <v>9</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F152" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G152" s="15">
         <v>0</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" spans="1:8" s="15" customFormat="1">
@@ -4934,22 +4940,22 @@
         <v>9</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D153" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F153" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G153" s="15">
         <v>0</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:8" s="18" customFormat="1">
@@ -4960,7 +4966,7 @@
         <v>9</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D154" s="18" t="s">
         <v>11</v>
@@ -4969,7 +4975,7 @@
         <v>12</v>
       </c>
       <c r="F154" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G154" s="18">
         <v>40</v>
@@ -4983,16 +4989,16 @@
         <v>9</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D155" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G155" s="18">
         <v>70</v>
@@ -5006,16 +5012,16 @@
         <v>9</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D156" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F156" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G156" s="18">
         <v>72</v>
@@ -5029,16 +5035,16 @@
         <v>9</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D157" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F157" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G157" s="18">
         <v>40</v>
@@ -5052,16 +5058,16 @@
         <v>9</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D158" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G158" s="18">
         <v>60</v>
@@ -5075,22 +5081,22 @@
         <v>9</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D159" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F159" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G159" s="18">
         <v>0</v>
       </c>
       <c r="H159" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="160" spans="1:8" s="18" customFormat="1">
@@ -5101,22 +5107,22 @@
         <v>9</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D160" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G160" s="18">
         <v>0</v>
       </c>
       <c r="H160" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161" spans="1:8" s="18" customFormat="1">
@@ -5127,22 +5133,22 @@
         <v>9</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D161" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F161" s="22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G161" s="18">
         <v>0</v>
       </c>
       <c r="H161" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162" spans="1:8" s="15" customFormat="1" ht="22.35">
@@ -5153,7 +5159,7 @@
         <v>9</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>11</v>
@@ -5162,7 +5168,7 @@
         <v>12</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G162" s="15">
         <v>60</v>
@@ -5176,16 +5182,16 @@
         <v>9</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D163" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E163" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G163" s="15">
         <v>70</v>
@@ -5199,16 +5205,16 @@
         <v>9</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D164" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F164" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G164" s="15">
         <v>68</v>
@@ -5222,16 +5228,16 @@
         <v>9</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G165" s="15">
         <v>60</v>
@@ -5245,16 +5251,16 @@
         <v>9</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G166" s="15">
         <v>50</v>
@@ -5268,16 +5274,16 @@
         <v>9</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E167" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G167" s="15">
         <v>60</v>
@@ -5291,16 +5297,16 @@
         <v>9</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F168" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G168" s="15">
         <v>0</v>
@@ -5314,22 +5320,22 @@
         <v>9</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E169" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F169" s="24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G169" s="15">
         <v>0</v>
       </c>
       <c r="H169" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170" spans="1:8" s="18" customFormat="1">
@@ -5340,7 +5346,7 @@
         <v>9</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D170" s="18" t="s">
         <v>11</v>
@@ -5349,7 +5355,7 @@
         <v>12</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G170" s="18">
         <v>40</v>
@@ -5363,16 +5369,16 @@
         <v>9</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D171" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F171" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G171" s="18">
         <v>50</v>
@@ -5386,16 +5392,16 @@
         <v>9</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D172" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F172" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G172" s="18">
         <v>32</v>
@@ -5409,16 +5415,16 @@
         <v>9</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D173" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F173" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G173" s="18">
         <v>40</v>
@@ -5432,22 +5438,22 @@
         <v>9</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D174" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E174" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F174" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G174" s="18">
         <v>0</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="175" spans="1:8" s="18" customFormat="1">
@@ -5458,16 +5464,16 @@
         <v>9</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D175" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E175" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F175" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G175" s="18">
         <v>0</v>
@@ -5481,16 +5487,16 @@
         <v>9</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D176" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E176" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F176" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G176" s="18">
         <v>0</v>
@@ -5504,16 +5510,16 @@
         <v>9</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D177" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E177" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F177" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G177" s="18">
         <v>20</v>
@@ -5527,7 +5533,7 @@
         <v>9</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D178" s="15" t="s">
         <v>11</v>
@@ -5536,7 +5542,7 @@
         <v>12</v>
       </c>
       <c r="F178" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G178" s="15">
         <v>40</v>
@@ -5550,16 +5556,16 @@
         <v>9</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D179" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E179" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F179" s="24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G179" s="15">
         <v>60</v>
@@ -5573,16 +5579,16 @@
         <v>9</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D180" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E180" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F180" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G180" s="15">
         <v>32</v>
@@ -5596,16 +5602,16 @@
         <v>9</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E181" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F181" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G181" s="15">
         <v>40</v>
@@ -5619,22 +5625,22 @@
         <v>9</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E182" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F182" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G182" s="15">
         <v>0</v>
       </c>
       <c r="H182" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="183" spans="1:8" s="15" customFormat="1">
@@ -5645,16 +5651,16 @@
         <v>9</v>
       </c>
       <c r="C183" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D183" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E183" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F183" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G183" s="15">
         <v>0</v>
@@ -5668,16 +5674,16 @@
         <v>9</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E184" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G184" s="15">
         <v>0</v>
@@ -5691,16 +5697,16 @@
         <v>9</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D185" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E185" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F185" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G185" s="15">
         <v>30</v>
@@ -5714,7 +5720,7 @@
         <v>9</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D186" s="18" t="s">
         <v>11</v>
@@ -5723,13 +5729,13 @@
         <v>12</v>
       </c>
       <c r="F186" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G186" s="18">
         <v>0</v>
       </c>
       <c r="H186" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="187" spans="1:8" s="18" customFormat="1" ht="22.35">
@@ -5740,16 +5746,16 @@
         <v>9</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D187" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E187" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F187" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G187" s="18">
         <v>0</v>
@@ -5763,16 +5769,16 @@
         <v>9</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D188" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E188" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F188" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G188" s="18">
         <v>0</v>
@@ -5786,16 +5792,16 @@
         <v>9</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D189" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E189" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F189" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G189" s="18">
         <v>0</v>
@@ -5809,16 +5815,16 @@
         <v>9</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D190" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E190" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F190" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G190" s="18">
         <v>20</v>
@@ -5832,16 +5838,16 @@
         <v>9</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D191" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E191" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F191" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G191" s="18">
         <v>0</v>
@@ -5855,16 +5861,16 @@
         <v>9</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D192" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E192" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F192" s="22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G192" s="18">
         <v>0</v>
@@ -5878,16 +5884,16 @@
         <v>9</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D193" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E193" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F193" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G193" s="18">
         <v>0</v>
@@ -5895,10 +5901,10 @@
     </row>
     <row r="194" spans="1:8" s="25" customFormat="1">
       <c r="B194" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D194" s="25" t="s">
         <v>11</v>
@@ -5907,7 +5913,7 @@
         <v>12</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G194" s="25">
         <v>100</v>
@@ -5915,19 +5921,19 @@
     </row>
     <row r="195" spans="1:8" s="25" customFormat="1">
       <c r="B195" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D195" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G195" s="25">
         <v>85</v>
@@ -5935,19 +5941,19 @@
     </row>
     <row r="196" spans="1:8" s="25" customFormat="1">
       <c r="B196" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D196" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E196" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G196" s="25">
         <v>80</v>
@@ -5955,48 +5961,48 @@
     </row>
     <row r="197" spans="1:8" s="25" customFormat="1">
       <c r="B197" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D197" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G197" s="25">
         <v>0</v>
       </c>
       <c r="H197" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="198" spans="1:8" s="25" customFormat="1">
       <c r="B198" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D198" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G198" s="25">
         <v>0</v>
       </c>
       <c r="H198" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
